--- a/patient_data/patient_63.xlsx
+++ b/patient_data/patient_63.xlsx
@@ -877,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1946,16 +1946,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2100,16 +2100,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
